--- a/experiments/execution-time/summary-tracker-training.xlsx
+++ b/experiments/execution-time/summary-tracker-training.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12570"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="summary-tracker-training" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>instance</t>
   </si>
@@ -95,6 +94,15 @@
     <t>fn_modifier_change</t>
   </si>
   <si>
+    <t>tp_access_modifier_change</t>
+  </si>
+  <si>
+    <t>fp_access_modifier_change</t>
+  </si>
+  <si>
+    <t>fn_access_modifier_change</t>
+  </si>
+  <si>
     <t>tp_return_type_change</t>
   </si>
   <si>
@@ -140,13 +148,13 @@
     <t>fn_annotation_change</t>
   </si>
   <si>
-    <t>tp_method_move</t>
+    <t>tp_moved</t>
   </si>
   <si>
-    <t>fp_method_move</t>
+    <t>fp_moved</t>
   </si>
   <si>
-    <t>fn_method_move</t>
+    <t>fn_moved</t>
   </si>
   <si>
     <t>tp_all</t>
@@ -457,25 +465,16 @@
   <si>
     <t>spring-beans/src/main/java/org.springframework.beans.TypeConverterDelegate#convertIfNecessary(String, Object, Object, Class, TypeDescriptor)</t>
   </si>
-  <si>
-    <t>Tool</t>
-  </si>
-  <si>
-    <t>Runtime</t>
-  </si>
-  <si>
-    <t>Tracker_train</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -486,8 +485,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -495,7 +524,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,14 +555,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,13 +578,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -553,27 +591,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,46 +621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +638,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,61 +686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,13 +716,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,43 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,19 +794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,11 +832,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,17 +880,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,11 +908,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,171 +929,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,7 +1262,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1287,9 +1286,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1313,7 +1312,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1366,7 +1365,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1391,7 +1390,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1403,15 +1402,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AU104"/>
+  <dimension ref="A1:AX103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:50">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,13 +1552,22 @@
       <c r="AU1" t="s">
         <v>46</v>
       </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>9862</v>
+        <v>7148</v>
       </c>
       <c r="C2">
         <v>229</v>
@@ -1661,17 +1669,17 @@
         <v>0</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
         <v>4</v>
       </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
       <c r="AN2">
         <v>0</v>
       </c>
@@ -1679,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1688,21 +1696,30 @@
         <v>0</v>
       </c>
       <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>25</v>
       </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>6575</v>
+        <v>6347</v>
       </c>
       <c r="C3">
         <v>236</v>
@@ -1795,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1804,17 +1821,17 @@
         <v>0</v>
       </c>
       <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
         <v>4</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>1</v>
-      </c>
       <c r="AN3">
         <v>0</v>
       </c>
@@ -1831,21 +1848,30 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
         <v>52</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>785</v>
+        <v>630</v>
       </c>
       <c r="C4">
         <v>23</v>
@@ -1974,21 +2000,30 @@
         <v>0</v>
       </c>
       <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
         <v>3</v>
       </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:50">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>3525</v>
+        <v>3361</v>
       </c>
       <c r="C5">
         <v>97</v>
@@ -2090,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -2108,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2117,21 +2152,30 @@
         <v>0</v>
       </c>
       <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
         <v>38</v>
       </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>6067</v>
+        <v>5490</v>
       </c>
       <c r="C6">
         <v>181</v>
@@ -2233,17 +2277,17 @@
         <v>0</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
         <v>3</v>
       </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
       <c r="AN6">
         <v>0</v>
       </c>
@@ -2260,21 +2304,30 @@
         <v>0</v>
       </c>
       <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
         <v>45</v>
       </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:50">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <v>3312</v>
+        <v>2956</v>
       </c>
       <c r="C7">
         <v>151</v>
@@ -2367,26 +2420,26 @@
         <v>0</v>
       </c>
       <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>5</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
         <v>2</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
       <c r="AN7">
         <v>0</v>
       </c>
@@ -2403,21 +2456,30 @@
         <v>0</v>
       </c>
       <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
         <v>85</v>
       </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8">
-        <v>4264</v>
+        <v>4105</v>
       </c>
       <c r="C8">
         <v>256</v>
@@ -2492,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -2501,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -2510,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -2519,17 +2581,17 @@
         <v>0</v>
       </c>
       <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>4</v>
       </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
       <c r="AN8">
         <v>0</v>
       </c>
@@ -2546,21 +2608,30 @@
         <v>0</v>
       </c>
       <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
         <v>87</v>
       </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <v>17252</v>
+        <v>18274</v>
       </c>
       <c r="C9">
         <v>47</v>
@@ -2689,21 +2760,30 @@
         <v>0</v>
       </c>
       <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
         <v>6</v>
       </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <v>986</v>
+        <v>883</v>
       </c>
       <c r="C10">
         <v>39</v>
@@ -2832,21 +2912,30 @@
         <v>0</v>
       </c>
       <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
         <v>6</v>
       </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:50">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -2975,21 +3064,30 @@
         <v>0</v>
       </c>
       <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
         <v>2</v>
       </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>19962</v>
+        <v>20142</v>
       </c>
       <c r="C12">
         <v>123</v>
@@ -3091,17 +3189,17 @@
         <v>0</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <v>3</v>
       </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
       <c r="AN12">
         <v>0</v>
       </c>
@@ -3109,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3118,21 +3216,30 @@
         <v>0</v>
       </c>
       <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
         <v>31</v>
       </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:50">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13">
-        <v>7471</v>
+        <v>8114</v>
       </c>
       <c r="C13">
         <v>73</v>
@@ -3234,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -3243,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3261,21 +3368,30 @@
         <v>0</v>
       </c>
       <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
         <v>28</v>
       </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -3404,21 +3520,30 @@
         <v>0</v>
       </c>
       <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
         <v>4</v>
       </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:50">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B15">
-        <v>7144</v>
+        <v>7573</v>
       </c>
       <c r="C15">
         <v>106</v>
@@ -3493,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -3502,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -3520,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -3529,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -3538,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3547,21 +3672,30 @@
         <v>0</v>
       </c>
       <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
         <v>31</v>
       </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:50">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B16">
-        <v>1325</v>
+        <v>1161</v>
       </c>
       <c r="C16">
         <v>56</v>
@@ -3663,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -3672,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -3690,21 +3824,30 @@
         <v>0</v>
       </c>
       <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
         <v>26</v>
       </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:50">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>15522</v>
+        <v>15818</v>
       </c>
       <c r="C17">
         <v>120</v>
@@ -3797,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -3806,17 +3949,17 @@
         <v>0</v>
       </c>
       <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
         <v>2</v>
       </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
       <c r="AN17">
         <v>0</v>
       </c>
@@ -3833,21 +3976,30 @@
         <v>0</v>
       </c>
       <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
         <v>45</v>
       </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:50">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B18">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -3976,21 +4128,30 @@
         <v>0</v>
       </c>
       <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
         <v>7</v>
       </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:50">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19">
-        <v>15354</v>
+        <v>15226</v>
       </c>
       <c r="C19">
         <v>120</v>
@@ -4092,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -4110,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4119,21 +4280,30 @@
         <v>0</v>
       </c>
       <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
         <v>20</v>
       </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:50">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20">
-        <v>1222</v>
+        <v>1005</v>
       </c>
       <c r="C20">
         <v>62</v>
@@ -4235,17 +4405,17 @@
         <v>0</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
         <v>2</v>
       </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
       <c r="AN20">
         <v>0</v>
       </c>
@@ -4262,21 +4432,30 @@
         <v>0</v>
       </c>
       <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
         <v>24</v>
       </c>
-      <c r="AT20">
-        <v>0</v>
-      </c>
-      <c r="AU20">
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:50">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21">
-        <v>1646</v>
+        <v>1390</v>
       </c>
       <c r="C21">
         <v>47</v>
@@ -4378,17 +4557,17 @@
         <v>0</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
         <v>2</v>
       </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
-      </c>
       <c r="AN21">
         <v>0</v>
       </c>
@@ -4405,21 +4584,30 @@
         <v>0</v>
       </c>
       <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
         <v>18</v>
       </c>
-      <c r="AT21">
-        <v>0</v>
-      </c>
-      <c r="AU21">
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:50">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22">
-        <v>7545</v>
+        <v>7210</v>
       </c>
       <c r="C22">
         <v>101</v>
@@ -4494,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -4503,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -4512,17 +4700,17 @@
         <v>0</v>
       </c>
       <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>2</v>
       </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
@@ -4548,21 +4736,30 @@
         <v>0</v>
       </c>
       <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
         <v>39</v>
       </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:50">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B23">
-        <v>6128</v>
+        <v>5161</v>
       </c>
       <c r="C23">
         <v>75</v>
@@ -4637,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -4646,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -4664,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -4673,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN23">
         <v>0</v>
@@ -4682,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -4691,21 +4888,30 @@
         <v>0</v>
       </c>
       <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
         <v>19</v>
       </c>
-      <c r="AT23">
-        <v>0</v>
-      </c>
-      <c r="AU23">
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:50">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B24">
-        <v>66703</v>
+        <v>73158</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -4834,21 +5040,30 @@
         <v>0</v>
       </c>
       <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
         <v>4</v>
       </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:50">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25">
-        <v>40801</v>
+        <v>15252</v>
       </c>
       <c r="C25">
         <v>292</v>
@@ -4923,17 +5138,17 @@
         <v>0</v>
       </c>
       <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
         <v>5</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
       <c r="AE25">
         <v>0</v>
       </c>
@@ -4950,17 +5165,17 @@
         <v>0</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
         <v>13</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
       <c r="AN25">
         <v>0</v>
       </c>
@@ -4977,21 +5192,30 @@
         <v>0</v>
       </c>
       <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
         <v>71</v>
       </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:50">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>3226</v>
+        <v>3177</v>
       </c>
       <c r="C26">
         <v>56</v>
@@ -5066,17 +5290,17 @@
         <v>0</v>
       </c>
       <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <v>2</v>
       </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
       <c r="AE26">
         <v>0</v>
       </c>
@@ -5093,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26">
         <v>0</v>
@@ -5102,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26">
         <v>0</v>
@@ -5120,21 +5344,30 @@
         <v>0</v>
       </c>
       <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
         <v>56</v>
       </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:50">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B27">
-        <v>1359</v>
+        <v>1483</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -5236,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -5254,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>0</v>
@@ -5263,21 +5496,30 @@
         <v>0</v>
       </c>
       <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
         <v>9</v>
       </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:50">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B28">
-        <v>2071</v>
+        <v>2033</v>
       </c>
       <c r="C28">
         <v>37</v>
@@ -5406,21 +5648,30 @@
         <v>0</v>
       </c>
       <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
         <v>20</v>
       </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:50">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B29">
-        <v>2684</v>
+        <v>3118</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -5522,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29">
         <v>0</v>
@@ -5531,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -5549,21 +5800,30 @@
         <v>0</v>
       </c>
       <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
         <v>7</v>
       </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:50">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30">
-        <v>2816</v>
+        <v>2855</v>
       </c>
       <c r="C30">
         <v>21</v>
@@ -5674,17 +5934,17 @@
         <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
         <v>2</v>
       </c>
-      <c r="AN30">
-        <v>0</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
       <c r="AQ30">
         <v>0</v>
       </c>
@@ -5692,21 +5952,30 @@
         <v>0</v>
       </c>
       <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
         <v>10</v>
       </c>
-      <c r="AT30">
-        <v>0</v>
-      </c>
-      <c r="AU30">
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:50">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B31">
-        <v>1388</v>
+        <v>1270</v>
       </c>
       <c r="C31">
         <v>32</v>
@@ -5781,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -5790,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -5799,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -5808,17 +6077,17 @@
         <v>0</v>
       </c>
       <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
         <v>2</v>
       </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
       <c r="AN31">
         <v>0</v>
       </c>
@@ -5835,21 +6104,30 @@
         <v>0</v>
       </c>
       <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
         <v>26</v>
       </c>
-      <c r="AT31">
-        <v>0</v>
-      </c>
-      <c r="AU31">
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:50">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B32">
-        <v>20277</v>
+        <v>19431</v>
       </c>
       <c r="C32">
         <v>164</v>
@@ -5951,17 +6229,17 @@
         <v>0</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
         <v>2</v>
       </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
       <c r="AN32">
         <v>0</v>
       </c>
@@ -5978,21 +6256,30 @@
         <v>0</v>
       </c>
       <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
         <v>56</v>
       </c>
-      <c r="AT32">
-        <v>0</v>
-      </c>
-      <c r="AU32">
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:50">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B33">
-        <v>5896</v>
+        <v>5393</v>
       </c>
       <c r="C33">
         <v>92</v>
@@ -6121,21 +6408,30 @@
         <v>0</v>
       </c>
       <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
         <v>39</v>
       </c>
-      <c r="AT33">
-        <v>0</v>
-      </c>
-      <c r="AU33">
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:50">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B34">
-        <v>3263</v>
+        <v>3132</v>
       </c>
       <c r="C34">
         <v>47</v>
@@ -6264,21 +6560,30 @@
         <v>0</v>
       </c>
       <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
         <v>39</v>
       </c>
-      <c r="AT34">
-        <v>0</v>
-      </c>
-      <c r="AU34">
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:50">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B35">
-        <v>10298</v>
+        <v>10638</v>
       </c>
       <c r="C35">
         <v>31</v>
@@ -6380,17 +6685,17 @@
         <v>0</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
         <v>2</v>
       </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
       <c r="AN35">
         <v>0</v>
       </c>
@@ -6407,21 +6712,30 @@
         <v>0</v>
       </c>
       <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
         <v>18</v>
       </c>
-      <c r="AT35">
-        <v>0</v>
-      </c>
-      <c r="AU35">
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:50">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36">
-        <v>10152</v>
+        <v>10595</v>
       </c>
       <c r="C36">
         <v>31</v>
@@ -6523,17 +6837,17 @@
         <v>0</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
         <v>2</v>
       </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
       <c r="AN36">
         <v>0</v>
       </c>
@@ -6550,21 +6864,30 @@
         <v>0</v>
       </c>
       <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
         <v>14</v>
       </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:50">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37">
-        <v>10235</v>
+        <v>10643</v>
       </c>
       <c r="C37">
         <v>31</v>
@@ -6666,17 +6989,17 @@
         <v>0</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
         <v>2</v>
       </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
-      </c>
-      <c r="AM37">
-        <v>0</v>
-      </c>
       <c r="AN37">
         <v>0</v>
       </c>
@@ -6693,21 +7016,30 @@
         <v>0</v>
       </c>
       <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
         <v>18</v>
       </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:50">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B38">
-        <v>10233</v>
+        <v>10574</v>
       </c>
       <c r="C38">
         <v>31</v>
@@ -6809,17 +7141,17 @@
         <v>0</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
         <v>2</v>
       </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>0</v>
-      </c>
-      <c r="AM38">
-        <v>0</v>
-      </c>
       <c r="AN38">
         <v>0</v>
       </c>
@@ -6836,21 +7168,30 @@
         <v>0</v>
       </c>
       <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
         <v>14</v>
       </c>
-      <c r="AT38">
-        <v>0</v>
-      </c>
-      <c r="AU38">
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:50">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B39">
-        <v>2794</v>
+        <v>2837</v>
       </c>
       <c r="C39">
         <v>52</v>
@@ -6952,26 +7293,26 @@
         <v>0</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
         <v>2</v>
       </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
         <v>3</v>
       </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
       <c r="AQ39">
         <v>0</v>
       </c>
@@ -6979,21 +7320,30 @@
         <v>0</v>
       </c>
       <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
         <v>41</v>
       </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:50">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40">
-        <v>3240</v>
+        <v>3194</v>
       </c>
       <c r="C40">
         <v>42</v>
@@ -7122,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT40">
         <v>0</v>
@@ -7130,13 +7480,22 @@
       <c r="AU40">
         <v>0</v>
       </c>
+      <c r="AV40">
+        <v>1</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:50">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B41">
-        <v>1999</v>
+        <v>2037</v>
       </c>
       <c r="C41">
         <v>32</v>
@@ -7265,21 +7624,30 @@
         <v>0</v>
       </c>
       <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
         <v>19</v>
       </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:50">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B42">
-        <v>6214</v>
+        <v>7332</v>
       </c>
       <c r="C42">
         <v>94</v>
@@ -7381,17 +7749,17 @@
         <v>0</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
         <v>2</v>
       </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
-      </c>
-      <c r="AM42">
-        <v>0</v>
-      </c>
       <c r="AN42">
         <v>0</v>
       </c>
@@ -7408,21 +7776,30 @@
         <v>0</v>
       </c>
       <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
         <v>85</v>
       </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:50">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B43">
-        <v>810</v>
+        <v>910</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -7524,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43">
         <v>0</v>
@@ -7533,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN43">
         <v>0</v>
@@ -7551,21 +7928,30 @@
         <v>0</v>
       </c>
       <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
         <v>4</v>
       </c>
-      <c r="AT43">
-        <v>0</v>
-      </c>
-      <c r="AU43">
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:50">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44">
-        <v>4839</v>
+        <v>5050</v>
       </c>
       <c r="C44">
         <v>161</v>
@@ -7640,17 +8026,17 @@
         <v>0</v>
       </c>
       <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
         <v>2</v>
       </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
       <c r="AE44">
         <v>0</v>
       </c>
@@ -7667,17 +8053,17 @@
         <v>0</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
         <v>3</v>
       </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
       <c r="AN44">
         <v>0</v>
       </c>
@@ -7694,21 +8080,30 @@
         <v>0</v>
       </c>
       <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
         <v>56</v>
       </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:50">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B45">
-        <v>3635</v>
+        <v>3805</v>
       </c>
       <c r="C45">
         <v>156</v>
@@ -7783,17 +8178,17 @@
         <v>0</v>
       </c>
       <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
         <v>2</v>
       </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
       <c r="AE45">
         <v>0</v>
       </c>
@@ -7837,21 +8232,30 @@
         <v>0</v>
       </c>
       <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
         <v>91</v>
       </c>
-      <c r="AT45">
-        <v>0</v>
-      </c>
-      <c r="AU45">
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:50">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46">
-        <v>1453</v>
+        <v>1765</v>
       </c>
       <c r="C46">
         <v>57</v>
@@ -7980,30 +8384,39 @@
         <v>0</v>
       </c>
       <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
         <v>32</v>
       </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:50">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B47">
-        <v>5347</v>
+        <v>6365</v>
       </c>
       <c r="C47">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F47">
         <v>25</v>
@@ -8012,22 +8425,22 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>5</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -8036,7 +8449,7 @@
         <v>29</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -8045,7 +8458,7 @@
         <v>7</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -8069,16 +8482,16 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47">
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -8096,17 +8509,17 @@
         <v>0</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
         <v>5</v>
       </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
       <c r="AN47">
         <v>0</v>
       </c>
@@ -8123,21 +8536,30 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AT47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU47">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>48</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:50">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B48">
-        <v>5800</v>
+        <v>6184</v>
       </c>
       <c r="C48">
         <v>117</v>
@@ -8239,17 +8661,17 @@
         <v>0</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
         <v>3</v>
       </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
       <c r="AN48">
         <v>0</v>
       </c>
@@ -8266,21 +8688,30 @@
         <v>0</v>
       </c>
       <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
         <v>55</v>
       </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:50">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B49">
-        <v>3406</v>
+        <v>3893</v>
       </c>
       <c r="C49">
         <v>42</v>
@@ -8382,17 +8813,17 @@
         <v>0</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
         <v>3</v>
       </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
       <c r="AN49">
         <v>0</v>
       </c>
@@ -8409,21 +8840,30 @@
         <v>0</v>
       </c>
       <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
         <v>16</v>
       </c>
-      <c r="AT49">
-        <v>0</v>
-      </c>
-      <c r="AU49">
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:50">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B50">
-        <v>3270</v>
+        <v>3715</v>
       </c>
       <c r="C50">
         <v>79</v>
@@ -8543,7 +8983,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -8552,21 +8992,30 @@
         <v>0</v>
       </c>
       <c r="AS50">
+        <v>1</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
         <v>46</v>
       </c>
-      <c r="AT50">
+      <c r="AW50">
         <v>3</v>
       </c>
-      <c r="AU50">
+      <c r="AX50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:50">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B51">
-        <v>3670</v>
+        <v>2970</v>
       </c>
       <c r="C51">
         <v>92</v>
@@ -8668,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="AJ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK51">
         <v>0</v>
@@ -8677,17 +9126,17 @@
         <v>0</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
         <v>2</v>
       </c>
-      <c r="AN51">
-        <v>0</v>
-      </c>
-      <c r="AO51">
-        <v>0</v>
-      </c>
-      <c r="AP51">
-        <v>0</v>
-      </c>
       <c r="AQ51">
         <v>0</v>
       </c>
@@ -8695,21 +9144,30 @@
         <v>0</v>
       </c>
       <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
         <v>28</v>
       </c>
-      <c r="AT51">
-        <v>0</v>
-      </c>
-      <c r="AU51">
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:50">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B52">
-        <v>1384</v>
+        <v>1078</v>
       </c>
       <c r="C52">
         <v>64</v>
@@ -8802,17 +9260,17 @@
         <v>0</v>
       </c>
       <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>4</v>
       </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
@@ -8820,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="AM52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN52">
         <v>0</v>
@@ -8829,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -8838,21 +9296,30 @@
         <v>0</v>
       </c>
       <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
         <v>50</v>
       </c>
-      <c r="AT52">
-        <v>0</v>
-      </c>
-      <c r="AU52">
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:50">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B53">
-        <v>632</v>
+        <v>585</v>
       </c>
       <c r="C53">
         <v>31</v>
@@ -8981,21 +9448,30 @@
         <v>0</v>
       </c>
       <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
         <v>21</v>
       </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:50">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B54">
-        <v>1329</v>
+        <v>1207</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -9088,17 +9564,17 @@
         <v>0</v>
       </c>
       <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>2</v>
       </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
         <v>0</v>
       </c>
@@ -9106,17 +9582,17 @@
         <v>0</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
         <v>2</v>
       </c>
-      <c r="AN54">
-        <v>0</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>0</v>
-      </c>
       <c r="AQ54">
         <v>0</v>
       </c>
@@ -9124,21 +9600,30 @@
         <v>0</v>
       </c>
       <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
         <v>42</v>
       </c>
-      <c r="AT54">
-        <v>0</v>
-      </c>
-      <c r="AU54">
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:50">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B55">
-        <v>7306</v>
+        <v>6978</v>
       </c>
       <c r="C55">
         <v>172</v>
@@ -9213,17 +9698,17 @@
         <v>0</v>
       </c>
       <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
         <v>3</v>
       </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
       <c r="AE55">
         <v>0</v>
       </c>
@@ -9231,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="AG55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH55">
         <v>0</v>
@@ -9240,17 +9725,17 @@
         <v>0</v>
       </c>
       <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
         <v>7</v>
       </c>
-      <c r="AK55">
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <v>0</v>
-      </c>
       <c r="AN55">
         <v>0</v>
       </c>
@@ -9267,21 +9752,30 @@
         <v>0</v>
       </c>
       <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
         <v>61</v>
       </c>
-      <c r="AT55">
-        <v>0</v>
-      </c>
-      <c r="AU55">
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:50">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B56">
-        <v>5752</v>
+        <v>5475</v>
       </c>
       <c r="C56">
         <v>171</v>
@@ -9383,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="AJ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56">
         <v>0</v>
@@ -9392,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -9410,21 +9904,30 @@
         <v>0</v>
       </c>
       <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
         <v>39</v>
       </c>
-      <c r="AT56">
-        <v>0</v>
-      </c>
-      <c r="AU56">
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:50">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B57">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="C57">
         <v>38</v>
@@ -9517,17 +10020,17 @@
         <v>0</v>
       </c>
       <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>6</v>
       </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
@@ -9535,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="AM57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN57">
         <v>0</v>
@@ -9544,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>0</v>
@@ -9553,21 +10056,30 @@
         <v>0</v>
       </c>
       <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
         <v>43</v>
       </c>
-      <c r="AT57">
-        <v>0</v>
-      </c>
-      <c r="AU57">
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:50">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B58">
-        <v>2240</v>
+        <v>2026</v>
       </c>
       <c r="C58">
         <v>85</v>
@@ -9660,17 +10172,17 @@
         <v>0</v>
       </c>
       <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>2</v>
       </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
@@ -9678,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="AM58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58">
         <v>0</v>
@@ -9687,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0</v>
@@ -9696,21 +10208,30 @@
         <v>0</v>
       </c>
       <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
         <v>48</v>
       </c>
-      <c r="AT58">
-        <v>0</v>
-      </c>
-      <c r="AU58">
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:50">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B59">
-        <v>1935</v>
+        <v>2269</v>
       </c>
       <c r="C59">
         <v>21</v>
@@ -9839,21 +10360,30 @@
         <v>0</v>
       </c>
       <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
         <v>2</v>
       </c>
-      <c r="AT59">
-        <v>0</v>
-      </c>
-      <c r="AU59">
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:50">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B60">
-        <v>1185</v>
+        <v>1146</v>
       </c>
       <c r="C60">
         <v>68</v>
@@ -9928,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -9937,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE60">
         <v>0</v>
@@ -9982,21 +10512,30 @@
         <v>0</v>
       </c>
       <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
         <v>39</v>
       </c>
-      <c r="AT60">
-        <v>0</v>
-      </c>
-      <c r="AU60">
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:50">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B61">
-        <v>3464</v>
+        <v>3294</v>
       </c>
       <c r="C61">
         <v>101</v>
@@ -10098,26 +10637,26 @@
         <v>0</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0</v>
+      </c>
+      <c r="AM61">
         <v>3</v>
       </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AL61">
-        <v>0</v>
-      </c>
-      <c r="AM61">
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
         <v>2</v>
       </c>
-      <c r="AN61">
-        <v>0</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
-      </c>
-      <c r="AP61">
-        <v>0</v>
-      </c>
       <c r="AQ61">
         <v>0</v>
       </c>
@@ -10125,21 +10664,30 @@
         <v>0</v>
       </c>
       <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
         <v>36</v>
       </c>
-      <c r="AT61">
-        <v>0</v>
-      </c>
-      <c r="AU61">
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:50">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B62">
-        <v>12386</v>
+        <v>3276</v>
       </c>
       <c r="C62">
         <v>143</v>
@@ -10241,17 +10789,17 @@
         <v>0</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
         <v>2</v>
       </c>
-      <c r="AK62">
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <v>0</v>
-      </c>
-      <c r="AM62">
-        <v>1</v>
-      </c>
       <c r="AN62">
         <v>0</v>
       </c>
@@ -10268,21 +10816,30 @@
         <v>0</v>
       </c>
       <c r="AS62">
+        <v>1</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
         <v>22</v>
       </c>
-      <c r="AT62">
-        <v>0</v>
-      </c>
-      <c r="AU62">
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:50">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B63">
-        <v>464</v>
+        <v>561</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -10417,15 +10974,24 @@
         <v>0</v>
       </c>
       <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:50">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B64">
-        <v>3723</v>
+        <v>4228</v>
       </c>
       <c r="C64">
         <v>134</v>
@@ -10500,17 +11066,17 @@
         <v>0</v>
       </c>
       <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
         <v>3</v>
       </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
       <c r="AE64">
         <v>0</v>
       </c>
@@ -10527,17 +11093,17 @@
         <v>0</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
+      <c r="AM64">
         <v>8</v>
       </c>
-      <c r="AK64">
-        <v>0</v>
-      </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
-      <c r="AM64">
-        <v>0</v>
-      </c>
       <c r="AN64">
         <v>0</v>
       </c>
@@ -10545,30 +11111,39 @@
         <v>0</v>
       </c>
       <c r="AP64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
         <v>2</v>
       </c>
-      <c r="AQ64">
-        <v>0</v>
-      </c>
-      <c r="AR64">
-        <v>0</v>
-      </c>
-      <c r="AS64">
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
         <v>54</v>
       </c>
-      <c r="AT64">
-        <v>0</v>
-      </c>
-      <c r="AU64">
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:50">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B65">
-        <v>3524</v>
+        <v>3806</v>
       </c>
       <c r="C65">
         <v>133</v>
@@ -10643,17 +11218,17 @@
         <v>0</v>
       </c>
       <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
         <v>3</v>
       </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
       <c r="AE65">
         <v>0</v>
       </c>
@@ -10670,16 +11245,16 @@
         <v>0</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
         <v>6</v>
-      </c>
-      <c r="AK65">
-        <v>0</v>
-      </c>
-      <c r="AL65">
-        <v>0</v>
-      </c>
-      <c r="AM65">
-        <v>2</v>
       </c>
       <c r="AN65">
         <v>0</v>
@@ -10697,21 +11272,30 @@
         <v>0</v>
       </c>
       <c r="AS65">
+        <v>2</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
         <v>29</v>
       </c>
-      <c r="AT65">
-        <v>0</v>
-      </c>
-      <c r="AU65">
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:50">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B66">
-        <v>13878</v>
+        <v>3065</v>
       </c>
       <c r="C66">
         <v>131</v>
@@ -10813,17 +11397,17 @@
         <v>0</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
         <v>3</v>
       </c>
-      <c r="AK66">
-        <v>0</v>
-      </c>
-      <c r="AL66">
-        <v>0</v>
-      </c>
-      <c r="AM66">
-        <v>1</v>
-      </c>
       <c r="AN66">
         <v>0</v>
       </c>
@@ -10840,21 +11424,30 @@
         <v>0</v>
       </c>
       <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
         <v>44</v>
       </c>
-      <c r="AT66">
-        <v>0</v>
-      </c>
-      <c r="AU66">
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:50">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B67">
-        <v>3543</v>
+        <v>3801</v>
       </c>
       <c r="C67">
         <v>133</v>
@@ -10929,17 +11522,17 @@
         <v>0</v>
       </c>
       <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
         <v>3</v>
       </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
       <c r="AE67">
         <v>0</v>
       </c>
@@ -10956,17 +11549,17 @@
         <v>0</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
         <v>7</v>
       </c>
-      <c r="AK67">
-        <v>0</v>
-      </c>
-      <c r="AL67">
-        <v>0</v>
-      </c>
-      <c r="AM67">
-        <v>1</v>
-      </c>
       <c r="AN67">
         <v>0</v>
       </c>
@@ -10974,30 +11567,39 @@
         <v>0</v>
       </c>
       <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
         <v>2</v>
       </c>
-      <c r="AQ67">
-        <v>0</v>
-      </c>
-      <c r="AR67">
-        <v>0</v>
-      </c>
-      <c r="AS67">
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
         <v>26</v>
       </c>
-      <c r="AT67">
-        <v>0</v>
-      </c>
-      <c r="AU67">
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:50">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B68">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -11090,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="AG68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH68">
         <v>0</v>
@@ -11099,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="AJ68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK68">
         <v>0</v>
@@ -11126,21 +11728,30 @@
         <v>0</v>
       </c>
       <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
         <v>4</v>
       </c>
-      <c r="AT68">
-        <v>0</v>
-      </c>
-      <c r="AU68">
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:50">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B69">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C69">
         <v>36</v>
@@ -11215,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -11224,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -11233,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH69">
         <v>0</v>
@@ -11251,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AM69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN69">
         <v>0</v>
@@ -11260,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ69">
         <v>0</v>
@@ -11269,21 +11880,30 @@
         <v>0</v>
       </c>
       <c r="AS69">
+        <v>1</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
         <v>16</v>
       </c>
-      <c r="AT69">
-        <v>0</v>
-      </c>
-      <c r="AU69">
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:50">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B70">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C70">
         <v>17</v>
@@ -11412,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT70">
         <v>0</v>
@@ -11420,13 +12040,22 @@
       <c r="AU70">
         <v>0</v>
       </c>
+      <c r="AV70">
+        <v>1</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:50">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B71">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="C71">
         <v>73</v>
@@ -11555,21 +12184,30 @@
         <v>0</v>
       </c>
       <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
         <v>74</v>
       </c>
-      <c r="AT71">
-        <v>0</v>
-      </c>
-      <c r="AU71">
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:50">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B72">
-        <v>1048</v>
+        <v>1165</v>
       </c>
       <c r="C72">
         <v>60</v>
@@ -11671,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="AJ72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK72">
         <v>0</v>
@@ -11680,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="AM72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN72">
         <v>0</v>
@@ -11689,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ72">
         <v>0</v>
@@ -11698,21 +12336,30 @@
         <v>0</v>
       </c>
       <c r="AS72">
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
         <v>41</v>
       </c>
-      <c r="AT72">
-        <v>0</v>
-      </c>
-      <c r="AU72">
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:50">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B73">
-        <v>1567</v>
+        <v>1742</v>
       </c>
       <c r="C73">
         <v>92</v>
@@ -11814,17 +12461,17 @@
         <v>0</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
         <v>2</v>
       </c>
-      <c r="AK73">
-        <v>0</v>
-      </c>
-      <c r="AL73">
-        <v>0</v>
-      </c>
-      <c r="AM73">
-        <v>0</v>
-      </c>
       <c r="AN73">
         <v>0</v>
       </c>
@@ -11841,21 +12488,30 @@
         <v>0</v>
       </c>
       <c r="AS73">
+        <v>0</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
         <v>15</v>
       </c>
-      <c r="AT73">
-        <v>0</v>
-      </c>
-      <c r="AU73">
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:50">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B74">
-        <v>2105</v>
+        <v>2536</v>
       </c>
       <c r="C74">
         <v>130</v>
@@ -11930,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -11939,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE74">
         <v>0</v>
@@ -11957,7 +12613,7 @@
         <v>0</v>
       </c>
       <c r="AJ74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK74">
         <v>0</v>
@@ -11966,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="AM74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN74">
         <v>0</v>
@@ -11984,21 +12640,30 @@
         <v>0</v>
       </c>
       <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
         <v>31</v>
       </c>
-      <c r="AT74">
-        <v>0</v>
-      </c>
-      <c r="AU74">
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:50">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B75">
-        <v>2024</v>
+        <v>2353</v>
       </c>
       <c r="C75">
         <v>118</v>
@@ -12100,17 +12765,17 @@
         <v>0</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
         <v>5</v>
       </c>
-      <c r="AK75">
-        <v>0</v>
-      </c>
-      <c r="AL75">
-        <v>0</v>
-      </c>
-      <c r="AM75">
-        <v>1</v>
-      </c>
       <c r="AN75">
         <v>0</v>
       </c>
@@ -12118,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0</v>
@@ -12127,21 +12792,30 @@
         <v>0</v>
       </c>
       <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+      <c r="AV75">
         <v>39</v>
       </c>
-      <c r="AT75">
-        <v>0</v>
-      </c>
-      <c r="AU75">
+      <c r="AW75">
+        <v>0</v>
+      </c>
+      <c r="AX75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:50">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B76">
-        <v>1162</v>
+        <v>1244</v>
       </c>
       <c r="C76">
         <v>76</v>
@@ -12216,7 +12890,7 @@
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -12225,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE76">
         <v>0</v>
@@ -12243,17 +12917,17 @@
         <v>0</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
         <v>5</v>
       </c>
-      <c r="AK76">
-        <v>0</v>
-      </c>
-      <c r="AL76">
-        <v>0</v>
-      </c>
-      <c r="AM76">
-        <v>0</v>
-      </c>
       <c r="AN76">
         <v>0</v>
       </c>
@@ -12270,21 +12944,30 @@
         <v>0</v>
       </c>
       <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AV76">
         <v>43</v>
       </c>
-      <c r="AT76">
-        <v>0</v>
-      </c>
-      <c r="AU76">
+      <c r="AW76">
+        <v>0</v>
+      </c>
+      <c r="AX76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:47">
+    <row r="77" spans="1:50">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B77">
-        <v>1896</v>
+        <v>1843</v>
       </c>
       <c r="C77">
         <v>121</v>
@@ -12377,26 +13060,26 @@
         <v>0</v>
       </c>
       <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>2</v>
       </c>
-      <c r="AH77">
-        <v>0</v>
-      </c>
-      <c r="AI77">
-        <v>0</v>
-      </c>
-      <c r="AJ77">
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
         <v>6</v>
       </c>
-      <c r="AK77">
-        <v>0</v>
-      </c>
-      <c r="AL77">
-        <v>0</v>
-      </c>
-      <c r="AM77">
-        <v>0</v>
-      </c>
       <c r="AN77">
         <v>0</v>
       </c>
@@ -12413,21 +13096,30 @@
         <v>0</v>
       </c>
       <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
         <v>49</v>
       </c>
-      <c r="AT77">
-        <v>0</v>
-      </c>
-      <c r="AU77">
+      <c r="AW77">
+        <v>0</v>
+      </c>
+      <c r="AX77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:47">
+    <row r="78" spans="1:50">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B78">
-        <v>4887</v>
+        <v>5641</v>
       </c>
       <c r="C78">
         <v>50</v>
@@ -12457,13 +13149,13 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>24</v>
@@ -12520,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="AG78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH78">
         <v>0</v>
@@ -12529,48 +13221,57 @@
         <v>0</v>
       </c>
       <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
         <v>6</v>
       </c>
-      <c r="AK78">
-        <v>0</v>
-      </c>
-      <c r="AL78">
-        <v>0</v>
-      </c>
-      <c r="AM78">
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
         <v>3</v>
       </c>
-      <c r="AN78">
-        <v>0</v>
-      </c>
-      <c r="AO78">
-        <v>0</v>
-      </c>
-      <c r="AP78">
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
+      <c r="AS78">
         <v>2</v>
       </c>
-      <c r="AQ78">
-        <v>1</v>
-      </c>
-      <c r="AR78">
-        <v>0</v>
-      </c>
-      <c r="AS78">
-        <v>58</v>
-      </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU78">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>59</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:47">
+    <row r="79" spans="1:50">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B79">
-        <v>1276</v>
+        <v>1373</v>
       </c>
       <c r="C79">
         <v>55</v>
@@ -12672,17 +13373,17 @@
         <v>0</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
+      <c r="AM79">
         <v>4</v>
       </c>
-      <c r="AK79">
-        <v>0</v>
-      </c>
-      <c r="AL79">
-        <v>0</v>
-      </c>
-      <c r="AM79">
-        <v>0</v>
-      </c>
       <c r="AN79">
         <v>0</v>
       </c>
@@ -12699,21 +13400,30 @@
         <v>0</v>
       </c>
       <c r="AS79">
+        <v>0</v>
+      </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+      <c r="AU79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
         <v>34</v>
       </c>
-      <c r="AT79">
-        <v>0</v>
-      </c>
-      <c r="AU79">
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="AX79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:47">
+    <row r="80" spans="1:50">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B80">
-        <v>1964</v>
+        <v>1561</v>
       </c>
       <c r="C80">
         <v>130</v>
@@ -12788,17 +13498,17 @@
         <v>0</v>
       </c>
       <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
         <v>3</v>
       </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AD80">
-        <v>0</v>
-      </c>
       <c r="AE80">
         <v>0</v>
       </c>
@@ -12806,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="AG80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH80">
         <v>0</v>
@@ -12815,17 +13525,17 @@
         <v>0</v>
       </c>
       <c r="AJ80">
+        <v>1</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
         <v>5</v>
       </c>
-      <c r="AK80">
-        <v>0</v>
-      </c>
-      <c r="AL80">
-        <v>0</v>
-      </c>
-      <c r="AM80">
-        <v>0</v>
-      </c>
       <c r="AN80">
         <v>0</v>
       </c>
@@ -12842,21 +13552,30 @@
         <v>0</v>
       </c>
       <c r="AS80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+      <c r="AV80">
         <v>46</v>
       </c>
-      <c r="AT80">
-        <v>0</v>
-      </c>
-      <c r="AU80">
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47">
+    <row r="81" spans="1:50">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B81">
-        <v>1793</v>
+        <v>1830</v>
       </c>
       <c r="C81">
         <v>122</v>
@@ -12931,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB81">
         <v>0</v>
@@ -12940,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE81">
         <v>0</v>
@@ -12958,17 +13677,17 @@
         <v>0</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
         <v>10</v>
       </c>
-      <c r="AK81">
-        <v>0</v>
-      </c>
-      <c r="AL81">
-        <v>0</v>
-      </c>
-      <c r="AM81">
-        <v>0</v>
-      </c>
       <c r="AN81">
         <v>0</v>
       </c>
@@ -12985,21 +13704,30 @@
         <v>0</v>
       </c>
       <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
         <v>45</v>
       </c>
-      <c r="AT81">
-        <v>0</v>
-      </c>
-      <c r="AU81">
+      <c r="AW81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:47">
+    <row r="82" spans="1:50">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B82">
-        <v>2240</v>
+        <v>2522</v>
       </c>
       <c r="C82">
         <v>62</v>
@@ -13074,17 +13802,17 @@
         <v>0</v>
       </c>
       <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
         <v>2</v>
       </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AD82">
-        <v>0</v>
-      </c>
       <c r="AE82">
         <v>0</v>
       </c>
@@ -13092,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AG82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH82">
         <v>0</v>
@@ -13101,17 +13829,17 @@
         <v>0</v>
       </c>
       <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
         <v>4</v>
       </c>
-      <c r="AK82">
-        <v>0</v>
-      </c>
-      <c r="AL82">
-        <v>0</v>
-      </c>
-      <c r="AM82">
-        <v>1</v>
-      </c>
       <c r="AN82">
         <v>0</v>
       </c>
@@ -13119,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>0</v>
@@ -13128,21 +13856,30 @@
         <v>0</v>
       </c>
       <c r="AS82">
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <v>0</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+      <c r="AV82">
         <v>47</v>
       </c>
-      <c r="AT82">
-        <v>0</v>
-      </c>
-      <c r="AU82">
+      <c r="AW82">
+        <v>0</v>
+      </c>
+      <c r="AX82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:47">
+    <row r="83" spans="1:50">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B83">
-        <v>28805</v>
+        <v>3320</v>
       </c>
       <c r="C83">
         <v>111</v>
@@ -13172,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -13244,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="AJ83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK83">
         <v>0</v>
@@ -13253,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="AM83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN83">
         <v>0</v>
@@ -13262,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ83">
         <v>0</v>
@@ -13271,21 +14008,30 @@
         <v>0</v>
       </c>
       <c r="AS83">
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
         <v>38</v>
       </c>
-      <c r="AT83">
-        <v>0</v>
-      </c>
-      <c r="AU83">
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:47">
+    <row r="84" spans="1:50">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B84">
-        <v>7536</v>
+        <v>7953</v>
       </c>
       <c r="C84">
         <v>137</v>
@@ -13387,17 +14133,17 @@
         <v>0</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
         <v>8</v>
       </c>
-      <c r="AK84">
-        <v>0</v>
-      </c>
-      <c r="AL84">
-        <v>0</v>
-      </c>
-      <c r="AM84">
-        <v>0</v>
-      </c>
       <c r="AN84">
         <v>0</v>
       </c>
@@ -13414,21 +14160,30 @@
         <v>0</v>
       </c>
       <c r="AS84">
+        <v>0</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+      <c r="AV84">
         <v>49</v>
       </c>
-      <c r="AT84">
-        <v>0</v>
-      </c>
-      <c r="AU84">
+      <c r="AW84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:47">
+    <row r="85" spans="1:50">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B85">
-        <v>2319</v>
+        <v>2604</v>
       </c>
       <c r="C85">
         <v>71</v>
@@ -13503,17 +14258,17 @@
         <v>0</v>
       </c>
       <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
         <v>2</v>
       </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
-        <v>0</v>
-      </c>
       <c r="AE85">
         <v>0</v>
       </c>
@@ -13530,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="AJ85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK85">
         <v>0</v>
@@ -13539,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="AM85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN85">
         <v>0</v>
@@ -13557,21 +14312,30 @@
         <v>0</v>
       </c>
       <c r="AS85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
         <v>20</v>
       </c>
-      <c r="AT85">
-        <v>0</v>
-      </c>
-      <c r="AU85">
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:47">
+    <row r="86" spans="1:50">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B86">
-        <v>3647</v>
+        <v>3620</v>
       </c>
       <c r="C86">
         <v>146</v>
@@ -13646,17 +14410,17 @@
         <v>0</v>
       </c>
       <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
         <v>2</v>
       </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>0</v>
-      </c>
-      <c r="AD86">
-        <v>0</v>
-      </c>
       <c r="AE86">
         <v>0</v>
       </c>
@@ -13673,17 +14437,17 @@
         <v>0</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
         <v>3</v>
       </c>
-      <c r="AK86">
-        <v>0</v>
-      </c>
-      <c r="AL86">
-        <v>0</v>
-      </c>
-      <c r="AM86">
-        <v>0</v>
-      </c>
       <c r="AN86">
         <v>0</v>
       </c>
@@ -13700,21 +14464,30 @@
         <v>0</v>
       </c>
       <c r="AS86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+      <c r="AV86">
         <v>37</v>
       </c>
-      <c r="AT86">
-        <v>0</v>
-      </c>
-      <c r="AU86">
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:47">
+    <row r="87" spans="1:50">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87">
-        <v>3138</v>
+        <v>3430</v>
       </c>
       <c r="C87">
         <v>71</v>
@@ -13789,17 +14562,17 @@
         <v>0</v>
       </c>
       <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
         <v>2</v>
       </c>
-      <c r="AB87">
-        <v>0</v>
-      </c>
-      <c r="AC87">
-        <v>0</v>
-      </c>
-      <c r="AD87">
-        <v>0</v>
-      </c>
       <c r="AE87">
         <v>0</v>
       </c>
@@ -13843,21 +14616,30 @@
         <v>0</v>
       </c>
       <c r="AS87">
+        <v>0</v>
+      </c>
+      <c r="AT87">
+        <v>0</v>
+      </c>
+      <c r="AU87">
+        <v>0</v>
+      </c>
+      <c r="AV87">
         <v>9</v>
       </c>
-      <c r="AT87">
-        <v>0</v>
-      </c>
-      <c r="AU87">
+      <c r="AW87">
+        <v>0</v>
+      </c>
+      <c r="AX87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:47">
+    <row r="88" spans="1:50">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B88">
-        <v>8070</v>
+        <v>8964</v>
       </c>
       <c r="C88">
         <v>12</v>
@@ -13959,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="AJ88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK88">
         <v>0</v>
@@ -13968,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="AM88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN88">
         <v>0</v>
@@ -13986,21 +14768,30 @@
         <v>0</v>
       </c>
       <c r="AS88">
+        <v>0</v>
+      </c>
+      <c r="AT88">
+        <v>0</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
         <v>13</v>
       </c>
-      <c r="AT88">
-        <v>0</v>
-      </c>
-      <c r="AU88">
+      <c r="AW88">
+        <v>0</v>
+      </c>
+      <c r="AX88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:47">
+    <row r="89" spans="1:50">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B89">
-        <v>4028</v>
+        <v>3989</v>
       </c>
       <c r="C89">
         <v>142</v>
@@ -14075,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB89">
         <v>0</v>
@@ -14084,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="AD89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE89">
         <v>0</v>
@@ -14102,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="AJ89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK89">
         <v>0</v>
@@ -14111,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="AM89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN89">
         <v>0</v>
@@ -14129,21 +14920,30 @@
         <v>0</v>
       </c>
       <c r="AS89">
+        <v>0</v>
+      </c>
+      <c r="AT89">
+        <v>0</v>
+      </c>
+      <c r="AU89">
+        <v>0</v>
+      </c>
+      <c r="AV89">
         <v>41</v>
       </c>
-      <c r="AT89">
-        <v>0</v>
-      </c>
-      <c r="AU89">
+      <c r="AW89">
+        <v>0</v>
+      </c>
+      <c r="AX89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:47">
+    <row r="90" spans="1:50">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B90">
-        <v>3260</v>
+        <v>3547</v>
       </c>
       <c r="C90">
         <v>124</v>
@@ -14272,21 +15072,30 @@
         <v>0</v>
       </c>
       <c r="AS90">
+        <v>0</v>
+      </c>
+      <c r="AT90">
+        <v>0</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AV90">
         <v>44</v>
       </c>
-      <c r="AT90">
-        <v>0</v>
-      </c>
-      <c r="AU90">
+      <c r="AW90">
+        <v>0</v>
+      </c>
+      <c r="AX90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47">
+    <row r="91" spans="1:50">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B91">
-        <v>41168</v>
+        <v>5717</v>
       </c>
       <c r="C91">
         <v>156</v>
@@ -14379,26 +15188,26 @@
         <v>0</v>
       </c>
       <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
         <v>2</v>
       </c>
-      <c r="AH91">
-        <v>0</v>
-      </c>
-      <c r="AI91">
-        <v>0</v>
-      </c>
-      <c r="AJ91">
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
         <v>8</v>
       </c>
-      <c r="AK91">
-        <v>0</v>
-      </c>
-      <c r="AL91">
-        <v>0</v>
-      </c>
-      <c r="AM91">
-        <v>0</v>
-      </c>
       <c r="AN91">
         <v>0</v>
       </c>
@@ -14406,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ91">
         <v>0</v>
@@ -14415,21 +15224,30 @@
         <v>0</v>
       </c>
       <c r="AS91">
+        <v>1</v>
+      </c>
+      <c r="AT91">
+        <v>0</v>
+      </c>
+      <c r="AU91">
+        <v>0</v>
+      </c>
+      <c r="AV91">
         <v>71</v>
       </c>
-      <c r="AT91">
-        <v>0</v>
-      </c>
-      <c r="AU91">
+      <c r="AW91">
+        <v>0</v>
+      </c>
+      <c r="AX91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47">
+    <row r="92" spans="1:50">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B92">
-        <v>5090</v>
+        <v>4326</v>
       </c>
       <c r="C92">
         <v>67</v>
@@ -14522,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="AG92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH92">
         <v>0</v>
@@ -14531,17 +15349,17 @@
         <v>0</v>
       </c>
       <c r="AJ92">
+        <v>1</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
         <v>5</v>
       </c>
-      <c r="AK92">
-        <v>0</v>
-      </c>
-      <c r="AL92">
-        <v>0</v>
-      </c>
-      <c r="AM92">
-        <v>1</v>
-      </c>
       <c r="AN92">
         <v>0</v>
       </c>
@@ -14549,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>0</v>
@@ -14558,164 +15376,182 @@
         <v>0</v>
       </c>
       <c r="AS92">
+        <v>0</v>
+      </c>
+      <c r="AT92">
+        <v>0</v>
+      </c>
+      <c r="AU92">
+        <v>0</v>
+      </c>
+      <c r="AV92">
         <v>51</v>
       </c>
-      <c r="AT92">
-        <v>0</v>
-      </c>
-      <c r="AU92">
+      <c r="AW92">
+        <v>0</v>
+      </c>
+      <c r="AX92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:47">
+    <row r="93" spans="1:50">
       <c r="A93" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B93">
-        <v>5587</v>
+        <v>42445</v>
       </c>
       <c r="C93">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>59</v>
+      </c>
+      <c r="F93">
+        <v>42</v>
+      </c>
+      <c r="G93">
         <v>2</v>
       </c>
-      <c r="E93">
-        <v>20</v>
-      </c>
-      <c r="F93">
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>42</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>9</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>0</v>
+      </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
         <v>2</v>
       </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
+      <c r="AQ93">
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
+      <c r="AS93">
         <v>2</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>3</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>39</v>
-      </c>
-      <c r="R93">
-        <v>1</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <v>8</v>
-      </c>
-      <c r="U93">
-        <v>0</v>
-      </c>
-      <c r="V93">
-        <v>0</v>
-      </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-      <c r="X93">
-        <v>0</v>
-      </c>
-      <c r="Y93">
-        <v>0</v>
-      </c>
-      <c r="Z93">
-        <v>1</v>
-      </c>
-      <c r="AA93">
-        <v>0</v>
-      </c>
-      <c r="AB93">
-        <v>0</v>
-      </c>
-      <c r="AC93">
-        <v>0</v>
-      </c>
-      <c r="AD93">
-        <v>0</v>
-      </c>
-      <c r="AE93">
-        <v>0</v>
-      </c>
-      <c r="AF93">
-        <v>0</v>
-      </c>
-      <c r="AG93">
-        <v>0</v>
-      </c>
-      <c r="AH93">
-        <v>0</v>
-      </c>
-      <c r="AI93">
-        <v>0</v>
-      </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
-      <c r="AK93">
-        <v>0</v>
-      </c>
-      <c r="AL93">
-        <v>0</v>
-      </c>
-      <c r="AM93">
-        <v>1</v>
-      </c>
-      <c r="AN93">
-        <v>0</v>
-      </c>
-      <c r="AO93">
-        <v>1</v>
-      </c>
-      <c r="AP93">
-        <v>1</v>
-      </c>
-      <c r="AQ93">
-        <v>0</v>
-      </c>
-      <c r="AR93">
-        <v>1</v>
-      </c>
-      <c r="AS93">
-        <v>6</v>
-      </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU93">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="AV93">
+        <v>58</v>
+      </c>
+      <c r="AW93">
+        <v>0</v>
+      </c>
+      <c r="AX93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:47">
+    <row r="94" spans="1:50">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B94">
-        <v>31713</v>
+        <v>5602</v>
       </c>
       <c r="C94">
         <v>109</v>
@@ -14817,17 +15653,17 @@
         <v>0</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
         <v>4</v>
       </c>
-      <c r="AK94">
-        <v>0</v>
-      </c>
-      <c r="AL94">
-        <v>0</v>
-      </c>
-      <c r="AM94">
-        <v>1</v>
-      </c>
       <c r="AN94">
         <v>0</v>
       </c>
@@ -14835,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>0</v>
@@ -14844,21 +15680,30 @@
         <v>0</v>
       </c>
       <c r="AS94">
+        <v>0</v>
+      </c>
+      <c r="AT94">
+        <v>0</v>
+      </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
+      <c r="AV94">
         <v>69</v>
       </c>
-      <c r="AT94">
-        <v>0</v>
-      </c>
-      <c r="AU94">
+      <c r="AW94">
+        <v>0</v>
+      </c>
+      <c r="AX94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:47">
+    <row r="95" spans="1:50">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B95">
-        <v>10150</v>
+        <v>9945</v>
       </c>
       <c r="C95">
         <v>136</v>
@@ -14933,17 +15778,17 @@
         <v>0</v>
       </c>
       <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
         <v>2</v>
       </c>
-      <c r="AB95">
-        <v>0</v>
-      </c>
-      <c r="AC95">
-        <v>0</v>
-      </c>
-      <c r="AD95">
-        <v>0</v>
-      </c>
       <c r="AE95">
         <v>0</v>
       </c>
@@ -14960,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="AJ95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK95">
         <v>0</v>
@@ -14978,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>0</v>
@@ -14987,21 +15832,30 @@
         <v>0</v>
       </c>
       <c r="AS95">
+        <v>0</v>
+      </c>
+      <c r="AT95">
+        <v>0</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
         <v>79</v>
       </c>
-      <c r="AT95">
-        <v>0</v>
-      </c>
-      <c r="AU95">
+      <c r="AW95">
+        <v>0</v>
+      </c>
+      <c r="AX95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:47">
+    <row r="96" spans="1:50">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B96">
-        <v>28783</v>
+        <v>5406</v>
       </c>
       <c r="C96">
         <v>90</v>
@@ -15103,17 +15957,17 @@
         <v>0</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
         <v>4</v>
       </c>
-      <c r="AK96">
-        <v>0</v>
-      </c>
-      <c r="AL96">
-        <v>0</v>
-      </c>
-      <c r="AM96">
-        <v>0</v>
-      </c>
       <c r="AN96">
         <v>0</v>
       </c>
@@ -15130,21 +15984,30 @@
         <v>0</v>
       </c>
       <c r="AS96">
+        <v>0</v>
+      </c>
+      <c r="AT96">
+        <v>0</v>
+      </c>
+      <c r="AU96">
+        <v>0</v>
+      </c>
+      <c r="AV96">
         <v>54</v>
       </c>
-      <c r="AT96">
-        <v>0</v>
-      </c>
-      <c r="AU96">
+      <c r="AW96">
+        <v>0</v>
+      </c>
+      <c r="AX96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:47">
+    <row r="97" spans="1:50">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B97">
-        <v>3853</v>
+        <v>3582</v>
       </c>
       <c r="C97">
         <v>69</v>
@@ -15246,7 +16109,7 @@
         <v>0</v>
       </c>
       <c r="AJ97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK97">
         <v>0</v>
@@ -15264,7 +16127,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>0</v>
@@ -15273,21 +16136,30 @@
         <v>0</v>
       </c>
       <c r="AS97">
+        <v>0</v>
+      </c>
+      <c r="AT97">
+        <v>0</v>
+      </c>
+      <c r="AU97">
+        <v>0</v>
+      </c>
+      <c r="AV97">
         <v>52</v>
       </c>
-      <c r="AT97">
-        <v>0</v>
-      </c>
-      <c r="AU97">
+      <c r="AW97">
+        <v>0</v>
+      </c>
+      <c r="AX97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:47">
+    <row r="98" spans="1:50">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B98">
-        <v>7159</v>
+        <v>6755</v>
       </c>
       <c r="C98">
         <v>157</v>
@@ -15362,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB98">
         <v>0</v>
@@ -15371,7 +16243,7 @@
         <v>0</v>
       </c>
       <c r="AD98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE98">
         <v>0</v>
@@ -15389,17 +16261,17 @@
         <v>0</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
         <v>6</v>
       </c>
-      <c r="AK98">
-        <v>0</v>
-      </c>
-      <c r="AL98">
-        <v>0</v>
-      </c>
-      <c r="AM98">
-        <v>1</v>
-      </c>
       <c r="AN98">
         <v>0</v>
       </c>
@@ -15407,7 +16279,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>0</v>
@@ -15416,21 +16288,30 @@
         <v>0</v>
       </c>
       <c r="AS98">
+        <v>0</v>
+      </c>
+      <c r="AT98">
+        <v>0</v>
+      </c>
+      <c r="AU98">
+        <v>0</v>
+      </c>
+      <c r="AV98">
         <v>40</v>
       </c>
-      <c r="AT98">
-        <v>0</v>
-      </c>
-      <c r="AU98">
+      <c r="AW98">
+        <v>0</v>
+      </c>
+      <c r="AX98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:50">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B99">
-        <v>1568</v>
+        <v>1585</v>
       </c>
       <c r="C99">
         <v>69</v>
@@ -15505,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB99">
         <v>0</v>
@@ -15514,7 +16395,7 @@
         <v>0</v>
       </c>
       <c r="AD99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE99">
         <v>0</v>
@@ -15532,26 +16413,26 @@
         <v>0</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
         <v>4</v>
       </c>
-      <c r="AK99">
-        <v>0</v>
-      </c>
-      <c r="AL99">
-        <v>0</v>
-      </c>
-      <c r="AM99">
+      <c r="AN99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
         <v>2</v>
       </c>
-      <c r="AN99">
-        <v>0</v>
-      </c>
-      <c r="AO99">
-        <v>0</v>
-      </c>
-      <c r="AP99">
-        <v>0</v>
-      </c>
       <c r="AQ99">
         <v>0</v>
       </c>
@@ -15559,21 +16440,30 @@
         <v>0</v>
       </c>
       <c r="AS99">
+        <v>0</v>
+      </c>
+      <c r="AT99">
+        <v>0</v>
+      </c>
+      <c r="AU99">
+        <v>0</v>
+      </c>
+      <c r="AV99">
         <v>51</v>
       </c>
-      <c r="AT99">
-        <v>0</v>
-      </c>
-      <c r="AU99">
+      <c r="AW99">
+        <v>0</v>
+      </c>
+      <c r="AX99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:47">
+    <row r="100" spans="1:50">
       <c r="A100" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B100">
-        <v>2573</v>
+        <v>2372</v>
       </c>
       <c r="C100">
         <v>80</v>
@@ -15666,26 +16556,26 @@
         <v>0</v>
       </c>
       <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
         <v>2</v>
       </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-      <c r="AI100">
-        <v>0</v>
-      </c>
-      <c r="AJ100">
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
         <v>3</v>
       </c>
-      <c r="AK100">
-        <v>0</v>
-      </c>
-      <c r="AL100">
-        <v>0</v>
-      </c>
-      <c r="AM100">
-        <v>0</v>
-      </c>
       <c r="AN100">
         <v>0</v>
       </c>
@@ -15702,21 +16592,30 @@
         <v>0</v>
       </c>
       <c r="AS100">
+        <v>0</v>
+      </c>
+      <c r="AT100">
+        <v>0</v>
+      </c>
+      <c r="AU100">
+        <v>0</v>
+      </c>
+      <c r="AV100">
         <v>53</v>
       </c>
-      <c r="AT100">
-        <v>0</v>
-      </c>
-      <c r="AU100">
+      <c r="AW100">
+        <v>0</v>
+      </c>
+      <c r="AX100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:47">
+    <row r="101" spans="1:50">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B101">
-        <v>4026</v>
+        <v>3835</v>
       </c>
       <c r="C101">
         <v>68</v>
@@ -15791,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB101">
         <v>0</v>
@@ -15800,7 +16699,7 @@
         <v>0</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE101">
         <v>0</v>
@@ -15818,26 +16717,26 @@
         <v>0</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
         <v>5</v>
       </c>
-      <c r="AK101">
-        <v>0</v>
-      </c>
-      <c r="AL101">
-        <v>0</v>
-      </c>
-      <c r="AM101">
+      <c r="AN101">
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
         <v>2</v>
       </c>
-      <c r="AN101">
-        <v>0</v>
-      </c>
-      <c r="AO101">
-        <v>0</v>
-      </c>
-      <c r="AP101">
-        <v>0</v>
-      </c>
       <c r="AQ101">
         <v>0</v>
       </c>
@@ -15845,868 +16744,46 @@
         <v>0</v>
       </c>
       <c r="AS101">
+        <v>0</v>
+      </c>
+      <c r="AT101">
+        <v>0</v>
+      </c>
+      <c r="AU101">
+        <v>0</v>
+      </c>
+      <c r="AV101">
         <v>63</v>
       </c>
-      <c r="AT101">
-        <v>0</v>
-      </c>
-      <c r="AU101">
+      <c r="AW101">
+        <v>0</v>
+      </c>
+      <c r="AX101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102">
         <f>MEDIAN(B2:B101)</f>
-        <v>3435</v>
+        <v>3307</v>
       </c>
       <c r="C102">
         <f>MEDIAN(C2:C101)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103">
         <f>AVERAGE(B2:B101)</f>
-        <v>6639.76</v>
+        <v>5532</v>
       </c>
       <c r="C103">
         <f>AVERAGE(C2:C101)</f>
-        <v>86.29</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104">
-        <f>MAX(B2:B101)</f>
-        <v>66703</v>
+        <v>87.07</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B101"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B101"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2">
-        <v>9862</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3">
-        <v>6575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5">
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6">
-        <v>6067</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7">
-        <v>3312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9">
-        <v>17252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12">
-        <v>19962</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13">
-        <v>7471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15">
-        <v>7144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17">
-        <v>15522</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19">
-        <v>15354</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22">
-        <v>7545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23">
-        <v>6128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B24">
-        <v>66703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25">
-        <v>40801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29">
-        <v>2684</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30">
-        <v>2816</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32">
-        <v>20277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33">
-        <v>5896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34">
-        <v>3263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35">
-        <v>10298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36">
-        <v>10152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37">
-        <v>10235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38">
-        <v>10233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42">
-        <v>6214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44">
-        <v>4839</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45">
-        <v>3635</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47">
-        <v>5347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55">
-        <v>7306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56">
-        <v>5752</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62">
-        <v>12386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64">
-        <v>3723</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65">
-        <v>3524</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66">
-        <v>13878</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>149</v>
-      </c>
-      <c r="B67">
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>149</v>
-      </c>
-      <c r="B70">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78">
-        <v>4887</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80">
-        <v>1964</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>149</v>
-      </c>
-      <c r="B81">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>149</v>
-      </c>
-      <c r="B83">
-        <v>28805</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84">
-        <v>7536</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>149</v>
-      </c>
-      <c r="B85">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>149</v>
-      </c>
-      <c r="B88">
-        <v>8070</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>149</v>
-      </c>
-      <c r="B89">
-        <v>4028</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>149</v>
-      </c>
-      <c r="B90">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>149</v>
-      </c>
-      <c r="B91">
-        <v>41168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92">
-        <v>5090</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93">
-        <v>5587</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94">
-        <v>31713</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95">
-        <v>10150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96">
-        <v>28783</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>149</v>
-      </c>
-      <c r="B97">
-        <v>3853</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98">
-        <v>7159</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>149</v>
-      </c>
-      <c r="B99">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>149</v>
-      </c>
-      <c r="B100">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>149</v>
-      </c>
-      <c r="B101">
-        <v>4026</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>